--- a/files/temp/question_import.xlsx
+++ b/files/temp/question_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\qsz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\DebianDev\wwwroot\ems\files\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27DA1CA-8DE7-4F55-A475-A951510C7C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85EB70-BCD1-4C88-A5E7-0BF4F0C06F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="4190" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{DC73E23F-644A-4B73-BE79-F0E8C9A7ED9F}"/>
+    <workbookView xWindow="7480" yWindow="3730" windowWidth="28800" windowHeight="15460" xr2:uid="{DC73E23F-644A-4B73-BE79-F0E8C9A7ED9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>【test2】C++中的注释应该以什么符号开始？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型: 1=单选题,2=多选题3=判断题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,17 +220,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -579,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44662695-DD9D-48DB-8C8A-0FCC8CDA6BD9}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -601,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -697,7 +691,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -707,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E978E18-0B2D-4CB9-B8D8-F11C8DBF76C8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -783,7 +777,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/temp/question_import.xlsx
+++ b/files/temp/question_import.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\DebianDev\wwwroot\ems\files\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85EB70-BCD1-4C88-A5E7-0BF4F0C06F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C969C27-658D-4B35-B23B-FB6B95A79D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="3730" windowWidth="28800" windowHeight="15460" xr2:uid="{DC73E23F-644A-4B73-BE79-F0E8C9A7ED9F}"/>
+    <workbookView xWindow="3380" yWindow="3980" windowWidth="28800" windowHeight="15460" xr2:uid="{DC73E23F-644A-4B73-BE79-F0E8C9A7ED9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -63,10 +62,6 @@
     <t>选项D</t>
   </si>
   <si>
-    <t>问题类型: 1=选择题,2=判断题3=填空,4=文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>答案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,18 +82,6 @@
     <t>逗号(,)</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>是否题冒题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,10 +103,6 @@
   </si>
   <si>
     <t>【test2】C++中的语句以什么符号结尾？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【test2】C++中的注释应该以什么符号开始？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -220,17 +199,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -574,7 +543,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -595,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -619,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -636,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -649,7 +618,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -660,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -669,19 +638,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3">
@@ -691,92 +660,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E978E18-0B2D-4CB9-B8D8-F11C8DBF76C8}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
